--- a/techniqo/data_new_ticker/MIDHANI.xlsx
+++ b/techniqo/data_new_ticker/MIDHANI.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G607"/>
+  <dimension ref="A1:G609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21671,6 +21671,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="C608" t="n">
+        <v>214.75</v>
+      </c>
+      <c r="D608" t="n">
+        <v>209.3</v>
+      </c>
+      <c r="E608" t="n">
+        <v>210.6</v>
+      </c>
+      <c r="F608" t="n">
+        <v>592533</v>
+      </c>
+      <c r="G608" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="C609" t="n">
+        <v>212.4</v>
+      </c>
+      <c r="D609" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="E609" t="n">
+        <v>208.7</v>
+      </c>
+      <c r="F609" t="n">
+        <v>297356</v>
+      </c>
+      <c r="G609" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/MIDHANI.xlsx
+++ b/techniqo/data_new_ticker/MIDHANI.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G609"/>
+  <dimension ref="A1:G611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21721,6 +21721,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>208.25</v>
+      </c>
+      <c r="C610" t="n">
+        <v>209.65</v>
+      </c>
+      <c r="D610" t="n">
+        <v>205.05</v>
+      </c>
+      <c r="E610" t="n">
+        <v>206</v>
+      </c>
+      <c r="F610" t="n">
+        <v>304063</v>
+      </c>
+      <c r="G610" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>206.95</v>
+      </c>
+      <c r="C611" t="n">
+        <v>209.45</v>
+      </c>
+      <c r="D611" t="n">
+        <v>204</v>
+      </c>
+      <c r="E611" t="n">
+        <v>205.4</v>
+      </c>
+      <c r="F611" t="n">
+        <v>371603</v>
+      </c>
+      <c r="G611" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
